--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_31.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_31.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_4</t>
+          <t>model_1_31_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999247748979543</v>
+        <v>0.9357228507737773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8288036112399753</v>
+        <v>0.747457934253597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.818679590662836</v>
+        <v>0.6749504179469725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999718287179443</v>
+        <v>0.958708357108231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003131264955371539</v>
+        <v>0.2675553496504521</v>
       </c>
       <c r="G2" t="n">
-        <v>1.144791039925172</v>
+        <v>1.688749956495486</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6485725906376307</v>
+        <v>1.162683507546005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001079832987136533</v>
+        <v>0.2639835734043476</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05081145179230635</v>
+        <v>1.426303292966721</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01769538062707762</v>
+        <v>0.5172575273985407</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004814406530926</v>
+        <v>0.9124736691387605</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01797406518306307</v>
+        <v>0.5254038163872393</v>
       </c>
       <c r="N2" t="n">
-        <v>146.13780661994</v>
+        <v>36.63685763893763</v>
       </c>
       <c r="O2" t="n">
-        <v>287.4729791631564</v>
+        <v>73.60144122716345</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_3</t>
+          <t>model_1_31_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999263723403748</v>
+        <v>0.9356991449172858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8286645296594042</v>
+        <v>0.7474055405395199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8186864773961331</v>
+        <v>0.675206986208987</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997563579044781</v>
+        <v>0.9585309468289722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003064770988151751</v>
+        <v>0.2676540259109694</v>
       </c>
       <c r="G3" t="n">
-        <v>1.145721079094863</v>
+        <v>1.68910031350277</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6485479571919428</v>
+        <v>1.161765777749461</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009339041484851217</v>
+        <v>0.2651177835301149</v>
       </c>
       <c r="J3" t="n">
-        <v>0.050768886704795</v>
+        <v>1.427106551532879</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01750648733513309</v>
+        <v>0.517352902679563</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00471217021601</v>
+        <v>0.9124413888235381</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01778219701059443</v>
+        <v>0.5255006937335975</v>
       </c>
       <c r="N3" t="n">
-        <v>146.180735047528</v>
+        <v>36.63612016111201</v>
       </c>
       <c r="O3" t="n">
-        <v>287.5159075907443</v>
+        <v>73.60070374933782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_5</t>
+          <t>model_1_31_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999280564375832</v>
+        <v>0.9357691287485661</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8285694789817525</v>
+        <v>0.7473367894878737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8186724552229652</v>
+        <v>0.6744285223567578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997175381457315</v>
+        <v>0.9590644097980544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002994669992253814</v>
+        <v>0.2673627163449185</v>
       </c>
       <c r="G4" t="n">
-        <v>1.146356683413988</v>
+        <v>1.689560052101696</v>
       </c>
       <c r="H4" t="n">
-        <v>0.648598113692312</v>
+        <v>1.164550297810958</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001082704107125344</v>
+        <v>0.2617072759553417</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05075153544196358</v>
+        <v>1.424665867699648</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01730511482843675</v>
+        <v>0.5170712874884067</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004604387994675</v>
+        <v>0.9125366859554943</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01757765308821628</v>
+        <v>0.5252146433846924</v>
       </c>
       <c r="N4" t="n">
-        <v>146.227012665411</v>
+        <v>36.6382981086178</v>
       </c>
       <c r="O4" t="n">
-        <v>287.5621852086274</v>
+        <v>73.60288169684362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_7</t>
+          <t>model_1_31_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999225293158184</v>
+        <v>0.9361338429675942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8285690952996794</v>
+        <v>0.7469037714772245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8188292894393785</v>
+        <v>0.6681597599703146</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996728298021725</v>
+        <v>0.9628542997302804</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003224737911280921</v>
+        <v>0.2658445836714994</v>
       </c>
       <c r="G5" t="n">
-        <v>1.146359249097777</v>
+        <v>1.692455645532773</v>
       </c>
       <c r="H5" t="n">
-        <v>0.648037126793972</v>
+        <v>1.186973297383537</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001254075591319037</v>
+        <v>0.2374779497030409</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04983559037620595</v>
+        <v>1.404741316316388</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01795755526590666</v>
+        <v>0.5156011866467138</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004958123787624</v>
+        <v>0.9130333180835325</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01824036881037518</v>
+        <v>0.5237213899243045</v>
       </c>
       <c r="N5" t="n">
-        <v>146.0789773857014</v>
+        <v>36.64968682573088</v>
       </c>
       <c r="O5" t="n">
-        <v>287.4141499289178</v>
+        <v>73.6142704139567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_6</t>
+          <t>model_1_31_1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999923703136175</v>
+        <v>0.9361441989339098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8285250662470578</v>
+        <v>0.7468090337343625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8188125512985831</v>
+        <v>0.6678213769054999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996816937592091</v>
+        <v>0.9630354193805559</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003175877325561952</v>
+        <v>0.2658014766852393</v>
       </c>
       <c r="G6" t="n">
-        <v>1.146653671575393</v>
+        <v>1.693089157255518</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6480969981530638</v>
+        <v>1.188183673985802</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001220099170985172</v>
+        <v>0.2363200250203438</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04988805920281961</v>
+        <v>1.403652228701331</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01782099134605579</v>
+        <v>0.5155593823074499</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004882999284803</v>
+        <v>0.9130474198248985</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01810165414530049</v>
+        <v>0.5236789272084863</v>
       </c>
       <c r="N6" t="n">
-        <v>146.1095129095801</v>
+        <v>36.65001115418599</v>
       </c>
       <c r="O6" t="n">
-        <v>287.4446854527965</v>
+        <v>73.61459474241181</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_8</t>
+          <t>model_1_31_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999226274557865</v>
+        <v>0.9359175527754828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8285080111503906</v>
+        <v>0.7465769806768732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8188734856341913</v>
+        <v>0.6725050701877682</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996720632387276</v>
+        <v>0.960319913839755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003220652808902631</v>
+        <v>0.2667448973704258</v>
       </c>
       <c r="G7" t="n">
-        <v>1.146767719085338</v>
+        <v>1.694640897119455</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6478790395677694</v>
+        <v>1.171430374691269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001257013904502416</v>
+        <v>0.253680653129496</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04948657449505321</v>
+        <v>1.418560777234391</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01794617733363468</v>
+        <v>0.5164735204929928</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004951842829662</v>
+        <v>0.9127387952687426</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01822881168704367</v>
+        <v>0.5246074621566484</v>
       </c>
       <c r="N7" t="n">
-        <v>146.0815125945678</v>
+        <v>36.64292503573272</v>
       </c>
       <c r="O7" t="n">
-        <v>287.4166851377843</v>
+        <v>73.60750862395854</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_2</t>
+          <t>model_1_31_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999241800579683</v>
+        <v>0.9359368349895352</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8285071896728801</v>
+        <v>0.7465152550189658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8184392189599214</v>
+        <v>0.6722173968017324</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997749646450679</v>
+        <v>0.960500219620515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003156025328588299</v>
+        <v>0.2666646346396592</v>
       </c>
       <c r="G8" t="n">
-        <v>1.146773212309234</v>
+        <v>1.695053656878103</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6494323862814039</v>
+        <v>1.172459365712857</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008625826792236935</v>
+        <v>0.2525279316348525</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0522982919347077</v>
+        <v>1.417651522175433</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0177652056801724</v>
+        <v>0.5163958119888843</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004852476290026</v>
+        <v>0.9127650519006436</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01804498991094465</v>
+        <v>0.5245285298212803</v>
       </c>
       <c r="N8" t="n">
-        <v>146.1220538869796</v>
+        <v>36.64352692022526</v>
       </c>
       <c r="O8" t="n">
-        <v>287.457226430196</v>
+        <v>73.60811050845108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_1</t>
+          <t>model_1_31_0</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999240628336421</v>
+        <v>0.9361537608899063</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8284794483936141</v>
+        <v>0.7465072428834509</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8183958266940951</v>
+        <v>0.6674788024186737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997790314969872</v>
+        <v>0.9632163826226537</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003160904822466916</v>
+        <v>0.2657616747881298</v>
       </c>
       <c r="G9" t="n">
-        <v>1.146958718371422</v>
+        <v>1.695107234065183</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6495875979002368</v>
+        <v>1.189409043061569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008469940352721148</v>
+        <v>0.2351631002782343</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05314602791008777</v>
+        <v>1.402550602935104</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0177789336645</v>
+        <v>0.5155207801710129</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004859978646905</v>
+        <v>0.9130604403607235</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01805893409730246</v>
+        <v>0.5236397171269883</v>
       </c>
       <c r="N9" t="n">
-        <v>146.1189640982801</v>
+        <v>36.65031066251025</v>
       </c>
       <c r="O9" t="n">
-        <v>287.4541366414965</v>
+        <v>73.61489425073607</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_9</t>
+          <t>model_1_31_4</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999224067596414</v>
+        <v>0.9360849890318583</v>
       </c>
       <c r="C10" t="n">
-        <v>0.828477287776719</v>
+        <v>0.7458971878170695</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8189960333937722</v>
+        <v>0.6694743997245529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999668728901943</v>
+        <v>0.9621293047312601</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003229839344866554</v>
+        <v>0.2660479394832454</v>
       </c>
       <c r="G10" t="n">
-        <v>1.146973166426549</v>
+        <v>1.699186675103121</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6474406933374757</v>
+        <v>1.18227090720982</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001269794745797078</v>
+        <v>0.2421129498420106</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04899776537992785</v>
+        <v>1.408957060786949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01797175379551632</v>
+        <v>0.515798351570888</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004965967382951</v>
+        <v>0.9129667935752964</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01825479095263287</v>
+        <v>0.5239216599989419</v>
       </c>
       <c r="N10" t="n">
-        <v>146.07581594882</v>
+        <v>36.64815752563508</v>
       </c>
       <c r="O10" t="n">
-        <v>287.4109884920364</v>
+        <v>73.61274111386091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_31_0</t>
+          <t>model_1_31_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998839025370679</v>
+        <v>0.9361108699013947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8283021406068443</v>
+        <v>0.7457471624029143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8180839827827799</v>
+        <v>0.6688247414007877</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999810432086031</v>
+        <v>0.9624918962958842</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004832587888890702</v>
+        <v>0.2659402096728629</v>
       </c>
       <c r="G11" t="n">
-        <v>1.148144376357979</v>
+        <v>1.700189895738381</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6507030454892622</v>
+        <v>1.184594697364574</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0007266324848176401</v>
+        <v>0.2397948484003553</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05227250251365589</v>
+        <v>1.406875547454093</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0219831478384937</v>
+        <v>0.5156939108355487</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007430237627652</v>
+        <v>0.9130020356104098</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02232936044186424</v>
+        <v>0.5238155744264233</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2699165059942</v>
+        <v>36.64896754226441</v>
       </c>
       <c r="O11" t="n">
-        <v>286.6050890492106</v>
+        <v>73.61355113049022</v>
       </c>
     </row>
   </sheetData>
